--- a/doors-detector/results/house20.xlsx
+++ b/doors-detector/results/house20.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6570921458257085</v>
+        <v>0.688826247605931</v>
       </c>
       <c r="F2" t="n">
         <v>3500</v>
       </c>
       <c r="G2" t="n">
-        <v>2609</v>
+        <v>2696</v>
       </c>
       <c r="H2" t="n">
-        <v>891</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.208419408397421</v>
+        <v>0.2706803431286629</v>
       </c>
       <c r="F3" t="n">
         <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>40</v>
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6792507670403704</v>
+        <v>0.6464119283529761</v>
       </c>
       <c r="F4" t="n">
         <v>105</v>
       </c>
       <c r="G4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8075328627972742</v>
+        <v>0.813035271549828</v>
       </c>
       <c r="F5" t="n">
         <v>3500</v>
       </c>
       <c r="G5" t="n">
-        <v>2977</v>
+        <v>2989</v>
       </c>
       <c r="H5" t="n">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5570419002290614</v>
+        <v>0.5681007619329282</v>
       </c>
       <c r="F6" t="n">
         <v>62</v>
@@ -632,7 +632,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.694171801362564</v>
+        <v>0.6729370766949125</v>
       </c>
       <c r="F7" t="n">
         <v>105</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H7" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6976754814539178</v>
+        <v>0.7141417880317471</v>
       </c>
       <c r="F8" t="n">
         <v>3500</v>
       </c>
       <c r="G8" t="n">
-        <v>2715</v>
+        <v>2755</v>
       </c>
       <c r="H8" t="n">
-        <v>785</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5936121693911476</v>
+        <v>0.6420977078537359</v>
       </c>
       <c r="F9" t="n">
         <v>62</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>64</v>
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.7094185822766247</v>
+        <v>0.7000118106983967</v>
       </c>
       <c r="F10" t="n">
         <v>105</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7601063054823249</v>
+        <v>0.7757792534385907</v>
       </c>
       <c r="F11" t="n">
         <v>3500</v>
       </c>
       <c r="G11" t="n">
-        <v>2880</v>
+        <v>2916</v>
       </c>
       <c r="H11" t="n">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6977516272316365</v>
+        <v>0.7233251842441929</v>
       </c>
       <c r="F12" t="n">
         <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8078631722644629</v>
+        <v>0.8092418437462068</v>
       </c>
       <c r="F13" t="n">
         <v>105</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" t="n">
         <v>103</v>
